--- a/document/基本設計/基本設計書_アカウント登録.xlsx
+++ b/document/基本設計/基本設計書_アカウント登録.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29003"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emi07\Desktop\追加課題6\【実習】各種設計書（テンプレ）\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="846" documentId="13_ncr:1_{9CEC4A06-5D13-4998-9862-AA740C6E7656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FF32800-4318-439A-B105-FAAA98A6EED9}"/>
+  <xr:revisionPtr revIDLastSave="1011" documentId="13_ncr:1_{9CEC4A06-5D13-4998-9862-AA740C6E7656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9E01D8F-627A-4ED1-8EC3-91BCBB04384A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="774" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">IO関連図!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">画面レイアウト!$A$1:$AK$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">画面レイアウト!$A$1:$AI$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$43</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">IO関連図!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">画面レイアウト!$1:$3</definedName>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>ユーザー名</t>
     <rPh sb="4" eb="5">
@@ -168,7 +168,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>アカウント一覧/登録・削除・更新</t>
+    <t>アカウント登録</t>
   </si>
   <si>
     <t>D.I.Works</t>
@@ -191,6 +191,9 @@
     <t>画面名</t>
   </si>
   <si>
+    <t>作成会社</t>
+  </si>
+  <si>
     <t>生徒管理システム</t>
     <rPh sb="2" eb="4">
       <t>カンリ</t>
@@ -198,7 +201,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>アカウント一覧画面</t>
+    <t>アカウント登録画面</t>
   </si>
   <si>
     <t>ヘッダー</t>
@@ -219,67 +222,34 @@
     <t>メールアドレス</t>
   </si>
   <si>
+    <t>パスワード</t>
+  </si>
+  <si>
     <t>性別</t>
   </si>
   <si>
-    <t>アカウント権限</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>削除フラグ</t>
-  </si>
-  <si>
-    <t>登録日時</t>
-  </si>
-  <si>
-    <t>更新日時</t>
-  </si>
-  <si>
-    <t>操作</t>
-  </si>
-  <si>
-    <t>●●</t>
-  </si>
-  <si>
-    <t>××</t>
-  </si>
-  <si>
-    <t>△△</t>
-  </si>
-  <si>
-    <t>xxxxx@xxxx</t>
+    <t>●</t>
   </si>
   <si>
     <t>男</t>
   </si>
   <si>
-    <t>有効</t>
-  </si>
-  <si>
-    <t>管理者</t>
-  </si>
-  <si>
-    <t>更新</t>
-  </si>
-  <si>
-    <t>削除</t>
-  </si>
-  <si>
-    <t>xxxxxx@xxxx</t>
-  </si>
-  <si>
     <t>女</t>
   </si>
   <si>
-    <t>無効</t>
+    <t>郵便番号</t>
   </si>
   <si>
-    <t>一般</t>
+    <t>住所（都道府県）</t>
   </si>
   <si>
-    <t>・</t>
+    <t>住所（市区町村）</t>
+  </si>
+  <si>
+    <t>住所（番地）</t>
+  </si>
+  <si>
+    <t>アカウント権限</t>
   </si>
   <si>
     <t>フッター</t>
@@ -292,7 +262,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -394,15 +364,19 @@
       <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <sz val="12"/>
+      <name val="メイリオ"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="メイリオ"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="メイリオ"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,14 +389,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="25">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -586,21 +554,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -615,43 +568,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -703,7 +619,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -762,17 +678,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -827,29 +739,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -863,131 +778,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1931,39 +1726,14 @@
               <a:spcPts val="0"/>
             </a:spcAft>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>アカウント一覧画面</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>アカウント更新・削除画面</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2223,64 +1993,8 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>アカウント一覧機能</a:t>
+            <a:t>アカウント登録</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>アカウント更新・削除機能</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2446,7 +2160,7 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>インデックス＞ヘッダ＞アカウント一覧</a:t>
+            <a:t>インデックス＞ヘッダ＞アカウント登録</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2474,23 +2188,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="四角形 1">
+        <xdr:cNvPr id="3" name="四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09889BC4-E667-088A-F4FD-F49291F93DF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80CDAE8D-9EB6-34F9-8758-AAF95169312E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2498,21 +2212,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8801100" y="2600325"/>
-          <a:ext cx="476250" cy="228600"/>
+          <a:off x="4000500" y="6353175"/>
+          <a:ext cx="762000" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg2"/>
         </a:solidFill>
         <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="0070BF"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2541,13 +2251,13 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>検索</a:t>
+            <a:t>確認する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2556,26 +2266,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="四角形 5">
+        <xdr:cNvPr id="4" name="四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D693F61F-3249-4A37-B1E5-4EE363687FF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94FFA802-831D-F6B7-8221-D5FA8B19AA38}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{09889BC4-E667-088A-F4FD-F49291F93DF0}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{80CDAE8D-9EB6-34F9-8758-AAF95169312E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2583,8 +2293,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3238500" y="2562225"/>
-          <a:ext cx="638175" cy="219075"/>
+          <a:off x="5524500" y="2266950"/>
+          <a:ext cx="933450" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2592,9 +2302,89 @@
         <a:solidFill>
           <a:schemeClr val="bg1"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="3175">
           <a:solidFill>
-            <a:srgbClr val="0070BF"/>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A61AEE84-F10D-4E1A-BB0D-32275F7A7AC1}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{94FFA802-831D-F6B7-8221-D5FA8B19AA38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="2590800"/>
+          <a:ext cx="933450" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -2715,17 +2505,1805 @@
         </a:lstStyle>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25FF536C-1A6C-473A-BD98-D3732E943338}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A61AEE84-F10D-4E1A-BB0D-32275F7A7AC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="2914650"/>
+          <a:ext cx="933450" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30803223-4210-413A-ACC7-382311C2E8E6}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{25FF536C-1A6C-473A-BD98-D3732E943338}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="3238500"/>
+          <a:ext cx="933450" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06943131-BEF3-4605-9CB3-62AB9FB39794}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{30803223-4210-413A-ACC7-382311C2E8E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="3562350"/>
+          <a:ext cx="933450" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CEA9197-A42E-40FB-A484-479E95CA678C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{06943131-BEF3-4605-9CB3-62AB9FB39794}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="3886200"/>
+          <a:ext cx="933450" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C54BAEBA-C37E-4588-82D6-39E4AF9EFBDF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C23F9574-29CE-43EE-AE6E-B295389F82E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="4533900"/>
+          <a:ext cx="933450" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9824B66A-7083-4F8F-B421-3F4BE6FDB4A2}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C54BAEBA-C37E-4588-82D6-39E4AF9EFBDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="4857750"/>
+          <a:ext cx="933450" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="四角形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68204722-FB8D-4F41-A376-5A60FF9C8B08}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9824B66A-7083-4F8F-B421-3F4BE6FDB4A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="5181600"/>
+          <a:ext cx="933450" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="四角形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEAF4AE2-4666-476B-B611-2ADE2AC15BFF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{68204722-FB8D-4F41-A376-5A60FF9C8B08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="5505450"/>
+          <a:ext cx="933450" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="四角形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A6004E-3141-41E4-BC0B-7FF778839C2F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CEAF4AE2-4666-476B-B611-2ADE2AC15BFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="5829300"/>
+          <a:ext cx="933450" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>一般</a:t>
+            <a:t>　一般</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="楕円 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE8F598-84CE-F36C-1532-8C8C95D17613}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C8A6004E-3141-41E4-BC0B-7FF778839C2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5534025" y="4210050"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="楕円 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BD3DA3A-6D2E-4761-961A-E8B9C104D66B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3AE8F598-84CE-F36C-1532-8C8C95D17613}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6076950" y="4210050"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3504,26 +5082,26 @@
     </row>
     <row r="8" spans="1:256" ht="12.95" customHeight="1">
       <c r="A8" s="17"/>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="48" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="59"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
@@ -3542,26 +5120,26 @@
     </row>
     <row r="9" spans="1:256" ht="12.95" customHeight="1">
       <c r="A9" s="17"/>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="66" t="s">
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="68"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="64"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
@@ -3580,22 +5158,22 @@
     </row>
     <row r="10" spans="1:256" ht="12.95" customHeight="1">
       <c r="A10" s="17"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="71"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="67"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
@@ -3806,26 +5384,26 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="72" t="s">
+      <c r="H17" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="72"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="68"/>
+      <c r="X17" s="68"/>
+      <c r="Y17" s="68"/>
       <c r="AA17" s="14"/>
       <c r="AB17" s="14"/>
       <c r="AC17" s="14"/>
@@ -3841,24 +5419,24 @@
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="72"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="68"/>
       <c r="AA18" s="14"/>
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
@@ -3874,24 +5452,24 @@
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="72"/>
-      <c r="W19" s="72"/>
-      <c r="X19" s="72"/>
-      <c r="Y19" s="72"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="68"/>
+      <c r="X19" s="68"/>
+      <c r="Y19" s="68"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
@@ -4119,13 +5697,13 @@
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
-      <c r="F26" s="73">
+      <c r="F26" s="69">
         <v>45798</v>
       </c>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="52" t="s">
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="50" t="s">
         <v>12</v>
       </c>
       <c r="K26" s="24"/>
@@ -4147,7 +5725,7 @@
       <c r="AA26" s="24"/>
       <c r="AB26" s="25"/>
       <c r="AC26" s="27"/>
-      <c r="AD26" s="51" t="s">
+      <c r="AD26" s="49" t="s">
         <v>13</v>
       </c>
       <c r="AE26" s="14"/>
@@ -4754,7 +6332,7 @@
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:AC3"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -4770,127 +6348,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
     </row>
     <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="82" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="80" t="s">
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="77" t="s">
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="79"/>
+      <c r="AG2" s="75"/>
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="77" t="s">
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="80" t="s">
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="74"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="77" t="s">
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="AG3" s="79"/>
+      <c r="AG3" s="75"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
@@ -6427,155 +8005,156 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:FY52"/>
+  <dimension ref="A1:FW52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AH25" sqref="AH25"/>
+      <selection activeCell="AD1" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="4.140625" style="40" customWidth="1"/>
     <col min="5" max="6" width="4.140625" style="38" customWidth="1"/>
-    <col min="7" max="34" width="4.140625" style="40" customWidth="1"/>
-    <col min="35" max="37" width="4.140625" style="49" customWidth="1"/>
-    <col min="38" max="41" width="4" style="40" customWidth="1"/>
-    <col min="42" max="16384" width="9" style="40"/>
+    <col min="7" max="29" width="4.140625" style="40" customWidth="1"/>
+    <col min="30" max="30" width="4.140625" style="40" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="4.140625" style="40" customWidth="1"/>
+    <col min="33" max="33" width="6.5703125" style="47" customWidth="1"/>
+    <col min="34" max="35" width="4.140625" style="47" customWidth="1"/>
+    <col min="36" max="39" width="4" style="40" customWidth="1"/>
+    <col min="40" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:181" ht="12.75" customHeight="1">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:179" ht="12.75" customHeight="1">
+      <c r="A1" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
-      <c r="AK1" s="93"/>
-    </row>
-    <row r="2" spans="1:181" ht="12.95" customHeight="1">
-      <c r="A2" s="94" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+    </row>
+    <row r="2" spans="1:179" ht="12.95" customHeight="1">
+      <c r="A2" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="94" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="95"/>
-      <c r="AE2" s="95"/>
-      <c r="AF2" s="95"/>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="94" t="s">
-        <v>17</v>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="92"/>
+      <c r="AD2" s="92"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="91" t="s">
+        <v>24</v>
       </c>
-      <c r="AI2" s="96"/>
-      <c r="AJ2" s="94" t="s">
+      <c r="AG2" s="93"/>
+      <c r="AH2" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="AK2" s="96"/>
-    </row>
-    <row r="3" spans="1:181" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="94" t="s">
+      <c r="AI2" s="93"/>
+    </row>
+    <row r="3" spans="1:179" s="16" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="95"/>
-      <c r="AG3" s="96"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="96"/>
-      <c r="AJ3" s="94" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="92"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="92"/>
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="AK3" s="96"/>
-      <c r="AL3" s="14"/>
+      <c r="AI3" s="93"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
       <c r="AM3" s="15"/>
       <c r="AN3" s="15"/>
       <c r="AO3" s="15"/>
@@ -6717,10 +8296,8 @@
       <c r="FU3" s="15"/>
       <c r="FV3" s="15"/>
       <c r="FW3" s="15"/>
-      <c r="FX3" s="15"/>
-      <c r="FY3" s="15"/>
-    </row>
-    <row r="4" spans="1:181" ht="12.75" customHeight="1">
+    </row>
+    <row r="4" spans="1:179" ht="12.75" customHeight="1">
       <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -6755,170 +8332,160 @@
       <c r="AF4" s="34"/>
       <c r="AG4" s="34"/>
       <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="36"/>
-    </row>
-    <row r="5" spans="1:181" ht="12.75" customHeight="1">
-      <c r="A5" s="48"/>
-      <c r="B5" s="114" t="s">
-        <v>26</v>
+      <c r="AI4" s="36"/>
+    </row>
+    <row r="5" spans="1:179" ht="12.75" customHeight="1">
+      <c r="A5" s="46"/>
+      <c r="B5" s="81" t="s">
+        <v>27</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="106"/>
-      <c r="T5" s="106"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="106"/>
-      <c r="Y5" s="106"/>
-      <c r="Z5" s="106"/>
-      <c r="AA5" s="106"/>
-      <c r="AB5" s="106"/>
-      <c r="AC5" s="106"/>
-      <c r="AD5" s="106"/>
-      <c r="AE5" s="106"/>
-      <c r="AF5" s="106"/>
-      <c r="AG5" s="106"/>
-      <c r="AH5" s="106"/>
-      <c r="AI5" s="106"/>
-      <c r="AJ5" s="107"/>
-      <c r="AK5" s="39"/>
-    </row>
-    <row r="6" spans="1:181" ht="12.75" customHeight="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="109"/>
-      <c r="T6" s="109"/>
-      <c r="U6" s="109"/>
-      <c r="V6" s="109"/>
-      <c r="W6" s="109"/>
-      <c r="X6" s="109"/>
-      <c r="Y6" s="109"/>
-      <c r="Z6" s="109"/>
-      <c r="AA6" s="109"/>
-      <c r="AB6" s="109"/>
-      <c r="AC6" s="109"/>
-      <c r="AD6" s="109"/>
-      <c r="AE6" s="109"/>
-      <c r="AF6" s="109"/>
-      <c r="AG6" s="109"/>
-      <c r="AH6" s="109"/>
-      <c r="AI6" s="109"/>
-      <c r="AJ6" s="110"/>
-      <c r="AK6" s="39"/>
-    </row>
-    <row r="7" spans="1:181" ht="12.75" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
-      <c r="P7" s="109"/>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="109"/>
-      <c r="S7" s="109"/>
-      <c r="T7" s="109"/>
-      <c r="U7" s="109"/>
-      <c r="V7" s="109"/>
-      <c r="W7" s="109"/>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="109"/>
-      <c r="AA7" s="109"/>
-      <c r="AB7" s="109"/>
-      <c r="AC7" s="109"/>
-      <c r="AD7" s="109"/>
-      <c r="AE7" s="109"/>
-      <c r="AF7" s="109"/>
-      <c r="AG7" s="109"/>
-      <c r="AH7" s="109"/>
-      <c r="AI7" s="109"/>
-      <c r="AJ7" s="110"/>
-      <c r="AK7" s="39"/>
-    </row>
-    <row r="8" spans="1:181" ht="12.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="112"/>
-      <c r="X8" s="112"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="112"/>
-      <c r="AB8" s="112"/>
-      <c r="AC8" s="112"/>
-      <c r="AD8" s="112"/>
-      <c r="AE8" s="112"/>
-      <c r="AF8" s="112"/>
-      <c r="AG8" s="112"/>
-      <c r="AH8" s="112"/>
-      <c r="AI8" s="112"/>
-      <c r="AJ8" s="113"/>
-      <c r="AK8" s="39"/>
-    </row>
-    <row r="9" spans="1:181" ht="12.75" customHeight="1">
-      <c r="A9" s="48"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="82"/>
+      <c r="AF5" s="82"/>
+      <c r="AG5" s="82"/>
+      <c r="AH5" s="83"/>
+      <c r="AI5" s="39"/>
+    </row>
+    <row r="6" spans="1:179" ht="12.75" customHeight="1">
+      <c r="A6" s="46"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="85"/>
+      <c r="Y6" s="85"/>
+      <c r="Z6" s="85"/>
+      <c r="AA6" s="85"/>
+      <c r="AB6" s="85"/>
+      <c r="AC6" s="85"/>
+      <c r="AD6" s="85"/>
+      <c r="AE6" s="85"/>
+      <c r="AF6" s="85"/>
+      <c r="AG6" s="85"/>
+      <c r="AH6" s="86"/>
+      <c r="AI6" s="39"/>
+    </row>
+    <row r="7" spans="1:179" ht="12.75" customHeight="1">
+      <c r="A7" s="46"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="85"/>
+      <c r="T7" s="85"/>
+      <c r="U7" s="85"/>
+      <c r="V7" s="85"/>
+      <c r="W7" s="85"/>
+      <c r="X7" s="85"/>
+      <c r="Y7" s="85"/>
+      <c r="Z7" s="85"/>
+      <c r="AA7" s="85"/>
+      <c r="AB7" s="85"/>
+      <c r="AC7" s="85"/>
+      <c r="AD7" s="85"/>
+      <c r="AE7" s="85"/>
+      <c r="AF7" s="85"/>
+      <c r="AG7" s="85"/>
+      <c r="AH7" s="86"/>
+      <c r="AI7" s="39"/>
+    </row>
+    <row r="8" spans="1:179" ht="12.75" customHeight="1">
+      <c r="A8" s="46"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="88"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="88"/>
+      <c r="AD8" s="88"/>
+      <c r="AE8" s="88"/>
+      <c r="AF8" s="88"/>
+      <c r="AG8" s="88"/>
+      <c r="AH8" s="89"/>
+      <c r="AI8" s="39"/>
+    </row>
+    <row r="9" spans="1:179" ht="12.75" customHeight="1">
+      <c r="A9" s="46"/>
       <c r="B9" s="45"/>
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
@@ -6952,12 +8519,10 @@
       <c r="AF9" s="45"/>
       <c r="AG9" s="45"/>
       <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="39"/>
-    </row>
-    <row r="10" spans="1:181" ht="12.75" customHeight="1">
-      <c r="A10" s="48"/>
+      <c r="AI9" s="39"/>
+    </row>
+    <row r="10" spans="1:179" ht="12.75" customHeight="1">
+      <c r="A10" s="46"/>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
       <c r="D10" s="45"/>
@@ -6991,14 +8556,12 @@
       <c r="AF10" s="45"/>
       <c r="AG10" s="45"/>
       <c r="AH10" s="45"/>
-      <c r="AI10" s="45"/>
-      <c r="AJ10" s="45"/>
-      <c r="AK10" s="39"/>
-    </row>
-    <row r="11" spans="1:181" ht="12.75" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="53" t="s">
-        <v>25</v>
+      <c r="AI10" s="39"/>
+    </row>
+    <row r="11" spans="1:179" ht="12.75" customHeight="1">
+      <c r="A11" s="46"/>
+      <c r="B11" s="51" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="45"/>
       <c r="D11" s="45"/>
@@ -7032,12 +8595,10 @@
       <c r="AF11" s="45"/>
       <c r="AG11" s="45"/>
       <c r="AH11" s="45"/>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="39"/>
-    </row>
-    <row r="12" spans="1:181" ht="12.75" customHeight="1">
-      <c r="A12" s="48"/>
+      <c r="AI11" s="39"/>
+    </row>
+    <row r="12" spans="1:179" ht="12.75" customHeight="1">
+      <c r="A12" s="46"/>
       <c r="B12" s="45"/>
       <c r="C12" s="45"/>
       <c r="D12" s="45"/>
@@ -7071,237 +8632,215 @@
       <c r="AF12" s="45"/>
       <c r="AG12" s="45"/>
       <c r="AH12" s="45"/>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="39"/>
-    </row>
-    <row r="13" spans="1:181" ht="28.5" customHeight="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="128" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="143" t="s">
+      <c r="AI12" s="39"/>
+    </row>
+    <row r="13" spans="1:179" ht="12.75" customHeight="1">
+      <c r="A13" s="46"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="39"/>
+    </row>
+    <row r="14" spans="1:179" ht="12.75" customHeight="1">
+      <c r="A14" s="46"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="45"/>
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="45"/>
+      <c r="AI14" s="39"/>
+    </row>
+    <row r="15" spans="1:179" ht="12.75" customHeight="1">
+      <c r="A15" s="46"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="S13" s="144"/>
-      <c r="T13" s="144"/>
-      <c r="U13" s="144"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="144"/>
-      <c r="X13" s="144"/>
-      <c r="Y13" s="144"/>
-      <c r="Z13" s="144"/>
-      <c r="AA13" s="144"/>
-      <c r="AB13" s="144"/>
-      <c r="AC13" s="145"/>
-      <c r="AD13" s="122"/>
-      <c r="AE13" s="123"/>
-      <c r="AF13" s="123"/>
-      <c r="AG13" s="123"/>
-      <c r="AH13" s="123"/>
-      <c r="AI13" s="123"/>
-      <c r="AJ13" s="124"/>
-      <c r="AK13" s="39"/>
-    </row>
-    <row r="14" spans="1:181" ht="27" customHeight="1">
-      <c r="A14" s="48"/>
-      <c r="B14" s="128" t="s">
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="45"/>
+      <c r="AF15" s="45"/>
+      <c r="AG15" s="45"/>
+      <c r="AH15" s="45"/>
+      <c r="AI15" s="39"/>
+    </row>
+    <row r="16" spans="1:179" ht="12.75" customHeight="1">
+      <c r="A16" s="46"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="45"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="45"/>
+      <c r="AG16" s="45"/>
+      <c r="AH16" s="45"/>
+      <c r="AI16" s="39"/>
+    </row>
+    <row r="17" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A17" s="46"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="127"/>
-      <c r="R14" s="143" t="s">
-        <v>30</v>
-      </c>
-      <c r="S14" s="144"/>
-      <c r="T14" s="144"/>
-      <c r="U14" s="144"/>
-      <c r="V14" s="144"/>
-      <c r="W14" s="144"/>
-      <c r="X14" s="144"/>
-      <c r="Y14" s="144"/>
-      <c r="Z14" s="144"/>
-      <c r="AA14" s="144"/>
-      <c r="AB14" s="144"/>
-      <c r="AC14" s="145"/>
-      <c r="AD14" s="122"/>
-      <c r="AE14" s="123"/>
-      <c r="AF14" s="123"/>
-      <c r="AG14" s="123"/>
-      <c r="AH14" s="123"/>
-      <c r="AI14" s="123"/>
-      <c r="AJ14" s="124"/>
-      <c r="AK14" s="39"/>
-    </row>
-    <row r="15" spans="1:181" ht="22.5" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="128" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="126"/>
-      <c r="N15" s="126"/>
-      <c r="O15" s="126"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="143" t="s">
-        <v>32</v>
-      </c>
-      <c r="S15" s="144"/>
-      <c r="T15" s="144"/>
-      <c r="U15" s="144"/>
-      <c r="V15" s="144"/>
-      <c r="W15" s="144"/>
-      <c r="X15" s="144"/>
-      <c r="Y15" s="144"/>
-      <c r="Z15" s="144"/>
-      <c r="AA15" s="144"/>
-      <c r="AB15" s="144"/>
-      <c r="AC15" s="145"/>
-      <c r="AD15" s="122"/>
-      <c r="AE15" s="123"/>
-      <c r="AF15" s="123"/>
-      <c r="AG15" s="123"/>
-      <c r="AH15" s="123"/>
-      <c r="AI15" s="123"/>
-      <c r="AJ15" s="124"/>
-      <c r="AK15" s="39"/>
-    </row>
-    <row r="16" spans="1:181" ht="19.5" customHeight="1">
-      <c r="A16" s="48"/>
-      <c r="B16" s="128" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="126"/>
-      <c r="N16" s="126"/>
-      <c r="O16" s="126"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="105"/>
-      <c r="S16" s="105"/>
-      <c r="T16" s="105"/>
-      <c r="U16" s="105"/>
-      <c r="V16" s="105"/>
-      <c r="W16" s="105"/>
-      <c r="X16" s="105"/>
-      <c r="Y16" s="105"/>
-      <c r="Z16" s="105"/>
-      <c r="AA16" s="105"/>
-      <c r="AB16" s="105"/>
-      <c r="AC16" s="105"/>
-      <c r="AD16" s="120"/>
-      <c r="AE16" s="120"/>
-      <c r="AF16" s="120"/>
-      <c r="AG16" s="120"/>
-      <c r="AH16" s="120"/>
-      <c r="AI16" s="120"/>
-      <c r="AJ16" s="121"/>
-      <c r="AK16" s="39"/>
-    </row>
-    <row r="17" spans="1:37" ht="21.75" customHeight="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="123"/>
-      <c r="S17" s="123"/>
-      <c r="T17" s="123"/>
-      <c r="U17" s="123"/>
-      <c r="V17" s="123"/>
-      <c r="W17" s="123"/>
-      <c r="X17" s="123"/>
-      <c r="Y17" s="123"/>
-      <c r="Z17" s="123"/>
-      <c r="AA17" s="123"/>
-      <c r="AB17" s="123"/>
-      <c r="AC17" s="123"/>
-      <c r="AD17" s="123"/>
-      <c r="AE17" s="123"/>
-      <c r="AF17" s="123"/>
-      <c r="AG17" s="123"/>
-      <c r="AH17" s="123"/>
-      <c r="AI17" s="123"/>
-      <c r="AJ17" s="124"/>
-      <c r="AK17" s="39"/>
-    </row>
-    <row r="18" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A18" s="48"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="45"/>
+      <c r="AD17" s="45"/>
+      <c r="AE17" s="45"/>
+      <c r="AF17" s="45"/>
+      <c r="AG17" s="45"/>
+      <c r="AH17" s="45"/>
+      <c r="AI17" s="39"/>
+    </row>
+    <row r="18" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A18" s="46"/>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
       <c r="R18" s="45"/>
       <c r="S18" s="45"/>
       <c r="T18" s="45"/>
@@ -7319,28 +8858,28 @@
       <c r="AF18" s="45"/>
       <c r="AG18" s="45"/>
       <c r="AH18" s="45"/>
-      <c r="AI18" s="45"/>
-      <c r="AJ18" s="45"/>
-      <c r="AK18" s="39"/>
-    </row>
-    <row r="19" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A19" s="48"/>
+      <c r="AI18" s="39"/>
+    </row>
+    <row r="19" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A19" s="46"/>
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
+      <c r="H19" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
       <c r="R19" s="45"/>
       <c r="S19" s="45"/>
       <c r="T19" s="45"/>
@@ -7358,28 +8897,26 @@
       <c r="AF19" s="45"/>
       <c r="AG19" s="45"/>
       <c r="AH19" s="45"/>
-      <c r="AI19" s="45"/>
-      <c r="AJ19" s="45"/>
-      <c r="AK19" s="39"/>
-    </row>
-    <row r="20" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A20" s="48"/>
+      <c r="AI19" s="39"/>
+    </row>
+    <row r="20" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A20" s="46"/>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
       <c r="R20" s="45"/>
       <c r="S20" s="45"/>
       <c r="T20" s="45"/>
@@ -7397,28 +8934,28 @@
       <c r="AF20" s="45"/>
       <c r="AG20" s="45"/>
       <c r="AH20" s="45"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="45"/>
-      <c r="AK20" s="39"/>
-    </row>
-    <row r="21" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A21" s="37"/>
+      <c r="AI20" s="39"/>
+    </row>
+    <row r="21" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A21" s="46"/>
       <c r="B21" s="45"/>
       <c r="C21" s="45"/>
       <c r="D21" s="45"/>
       <c r="E21" s="45"/>
-      <c r="F21" s="47"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
+      <c r="H21" s="94" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
       <c r="R21" s="45"/>
       <c r="S21" s="45"/>
       <c r="T21" s="45"/>
@@ -7436,1348 +8973,1105 @@
       <c r="AF21" s="45"/>
       <c r="AG21" s="45"/>
       <c r="AH21" s="45"/>
-      <c r="AI21" s="46"/>
-      <c r="AJ21" s="46"/>
-      <c r="AK21" s="39"/>
-    </row>
-    <row r="22" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="90" t="s">
+      <c r="AI21" s="39"/>
+    </row>
+    <row r="22" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A22" s="46"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="45"/>
+      <c r="AD22" s="45"/>
+      <c r="AE22" s="45"/>
+      <c r="AF22" s="45"/>
+      <c r="AG22" s="45"/>
+      <c r="AH22" s="45"/>
+      <c r="AI22" s="39"/>
+    </row>
+    <row r="23" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A23" s="46"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="45"/>
+      <c r="AD23" s="45"/>
+      <c r="AE23" s="45"/>
+      <c r="AF23" s="45"/>
+      <c r="AG23" s="45"/>
+      <c r="AH23" s="45"/>
+      <c r="AI23" s="39"/>
+    </row>
+    <row r="24" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A24" s="46"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="45"/>
+      <c r="AC24" s="45"/>
+      <c r="AD24" s="45"/>
+      <c r="AE24" s="45"/>
+      <c r="AF24" s="45"/>
+      <c r="AG24" s="45"/>
+      <c r="AH24" s="45"/>
+      <c r="AI24" s="39"/>
+    </row>
+    <row r="25" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A25" s="46"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="45"/>
+      <c r="AD25" s="45"/>
+      <c r="AE25" s="45"/>
+      <c r="AF25" s="45"/>
+      <c r="AG25" s="45"/>
+      <c r="AH25" s="45"/>
+      <c r="AI25" s="39"/>
+    </row>
+    <row r="26" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A26" s="46"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="45"/>
+      <c r="AD26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="39"/>
+    </row>
+    <row r="27" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A27" s="46"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="56"/>
-      <c r="H22" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="56"/>
-      <c r="J22" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" s="56"/>
-      <c r="L22" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="97" t="s">
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="95"/>
+      <c r="U27" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="S22" s="85"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="104" t="s">
-        <v>33</v>
-      </c>
-      <c r="W22" s="103"/>
-      <c r="X22" s="103"/>
-      <c r="Y22" s="131"/>
-      <c r="Z22" s="88" t="s">
+      <c r="V27" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="AA22" s="88"/>
-      <c r="AB22" s="89"/>
-      <c r="AC22" s="97" t="s">
+      <c r="W27" s="95"/>
+      <c r="X27" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="AD22" s="85"/>
-      <c r="AE22" s="86"/>
-      <c r="AF22" s="85" t="s">
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="95"/>
+      <c r="AA27" s="45"/>
+      <c r="AB27" s="45"/>
+      <c r="AC27" s="45"/>
+      <c r="AD27" s="45"/>
+      <c r="AE27" s="45"/>
+      <c r="AF27" s="45"/>
+      <c r="AG27" s="45"/>
+      <c r="AH27" s="45"/>
+      <c r="AI27" s="39"/>
+    </row>
+    <row r="28" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A28" s="46"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="45"/>
+      <c r="AD28" s="45"/>
+      <c r="AE28" s="45"/>
+      <c r="AF28" s="45"/>
+      <c r="AG28" s="45"/>
+      <c r="AH28" s="45"/>
+      <c r="AI28" s="39"/>
+    </row>
+    <row r="29" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A29" s="46"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="AG22" s="85"/>
-      <c r="AH22" s="85"/>
-      <c r="AI22" s="85"/>
-      <c r="AJ22" s="86"/>
-      <c r="AK22" s="39"/>
-    </row>
-    <row r="23" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="118">
-        <v>20</v>
-      </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="115" t="s">
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45"/>
+      <c r="AA29" s="45"/>
+      <c r="AB29" s="45"/>
+      <c r="AC29" s="45"/>
+      <c r="AD29" s="45"/>
+      <c r="AE29" s="45"/>
+      <c r="AF29" s="45"/>
+      <c r="AG29" s="45"/>
+      <c r="AH29" s="45"/>
+      <c r="AI29" s="39"/>
+    </row>
+    <row r="30" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A30" s="46"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="45"/>
+      <c r="Z30" s="45"/>
+      <c r="AA30" s="45"/>
+      <c r="AB30" s="45"/>
+      <c r="AC30" s="45"/>
+      <c r="AD30" s="45"/>
+      <c r="AE30" s="45"/>
+      <c r="AF30" s="45"/>
+      <c r="AG30" s="45"/>
+      <c r="AH30" s="45"/>
+      <c r="AI30" s="39"/>
+    </row>
+    <row r="31" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A31" s="46"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="116"/>
-      <c r="F23" s="115" t="s">
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="45"/>
+      <c r="AA31" s="45"/>
+      <c r="AB31" s="45"/>
+      <c r="AC31" s="45"/>
+      <c r="AD31" s="45"/>
+      <c r="AE31" s="45"/>
+      <c r="AF31" s="45"/>
+      <c r="AG31" s="45"/>
+      <c r="AH31" s="45"/>
+      <c r="AI31" s="39"/>
+    </row>
+    <row r="32" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A32" s="46"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="45"/>
+      <c r="AB32" s="45"/>
+      <c r="AC32" s="45"/>
+      <c r="AD32" s="45"/>
+      <c r="AE32" s="45"/>
+      <c r="AF32" s="45"/>
+      <c r="AG32" s="45"/>
+      <c r="AH32" s="45"/>
+      <c r="AI32" s="39"/>
+    </row>
+    <row r="33" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A33" s="46"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="116"/>
-      <c r="H23" s="115" t="s">
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="45"/>
+      <c r="AB33" s="45"/>
+      <c r="AC33" s="45"/>
+      <c r="AD33" s="45"/>
+      <c r="AE33" s="45"/>
+      <c r="AF33" s="45"/>
+      <c r="AG33" s="45"/>
+      <c r="AH33" s="45"/>
+      <c r="AI33" s="39"/>
+    </row>
+    <row r="34" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A34" s="46"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="45"/>
+      <c r="Z34" s="45"/>
+      <c r="AA34" s="45"/>
+      <c r="AB34" s="45"/>
+      <c r="AC34" s="45"/>
+      <c r="AD34" s="45"/>
+      <c r="AE34" s="45"/>
+      <c r="AF34" s="45"/>
+      <c r="AG34" s="45"/>
+      <c r="AH34" s="45"/>
+      <c r="AI34" s="39"/>
+    </row>
+    <row r="35" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A35" s="46"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="116"/>
-      <c r="J23" s="115" t="s">
-        <v>39</v>
-      </c>
-      <c r="K23" s="117"/>
-      <c r="L23" s="118" t="s">
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="45"/>
+      <c r="Z35" s="45"/>
+      <c r="AA35" s="45"/>
+      <c r="AB35" s="45"/>
+      <c r="AC35" s="45"/>
+      <c r="AD35" s="45"/>
+      <c r="AE35" s="45"/>
+      <c r="AF35" s="45"/>
+      <c r="AG35" s="45"/>
+      <c r="AH35" s="45"/>
+      <c r="AI35" s="39"/>
+    </row>
+    <row r="36" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A36" s="46"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="94"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="94"/>
+      <c r="P36" s="94"/>
+      <c r="Q36" s="94"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="45"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="45"/>
+      <c r="Z36" s="45"/>
+      <c r="AA36" s="45"/>
+      <c r="AB36" s="45"/>
+      <c r="AC36" s="45"/>
+      <c r="AD36" s="45"/>
+      <c r="AE36" s="45"/>
+      <c r="AF36" s="45"/>
+      <c r="AG36" s="45"/>
+      <c r="AH36" s="45"/>
+      <c r="AI36" s="39"/>
+    </row>
+    <row r="37" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A37" s="46"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="M23" s="132"/>
-      <c r="N23" s="132"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="102" t="s">
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="94"/>
+      <c r="L37" s="94"/>
+      <c r="M37" s="94"/>
+      <c r="N37" s="94"/>
+      <c r="O37" s="94"/>
+      <c r="P37" s="94"/>
+      <c r="Q37" s="94"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="45"/>
+      <c r="AE37" s="45"/>
+      <c r="AF37" s="45"/>
+      <c r="AG37" s="45"/>
+      <c r="AH37" s="45"/>
+      <c r="AI37" s="39"/>
+    </row>
+    <row r="38" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A38" s="46"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="94"/>
+      <c r="L38" s="94"/>
+      <c r="M38" s="94"/>
+      <c r="N38" s="94"/>
+      <c r="O38" s="94"/>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="94"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="45"/>
+      <c r="X38" s="45"/>
+      <c r="Y38" s="45"/>
+      <c r="Z38" s="45"/>
+      <c r="AA38" s="45"/>
+      <c r="AB38" s="45"/>
+      <c r="AC38" s="45"/>
+      <c r="AD38" s="45"/>
+      <c r="AE38" s="45"/>
+      <c r="AF38" s="45"/>
+      <c r="AG38" s="45"/>
+      <c r="AH38" s="45"/>
+      <c r="AI38" s="39"/>
+    </row>
+    <row r="39" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A39" s="46"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="45"/>
+      <c r="X39" s="45"/>
+      <c r="Y39" s="45"/>
+      <c r="Z39" s="45"/>
+      <c r="AA39" s="45"/>
+      <c r="AB39" s="45"/>
+      <c r="AC39" s="45"/>
+      <c r="AD39" s="45"/>
+      <c r="AE39" s="45"/>
+      <c r="AF39" s="45"/>
+      <c r="AG39" s="45"/>
+      <c r="AH39" s="45"/>
+      <c r="AI39" s="39"/>
+    </row>
+    <row r="40" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A40" s="46"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="45"/>
+      <c r="Z40" s="45"/>
+      <c r="AA40" s="45"/>
+      <c r="AB40" s="45"/>
+      <c r="AC40" s="45"/>
+      <c r="AD40" s="45"/>
+      <c r="AE40" s="45"/>
+      <c r="AF40" s="45"/>
+      <c r="AG40" s="45"/>
+      <c r="AH40" s="45"/>
+      <c r="AI40" s="39"/>
+    </row>
+    <row r="41" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A41" s="46"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="45"/>
+      <c r="X41" s="45"/>
+      <c r="Y41" s="45"/>
+      <c r="Z41" s="45"/>
+      <c r="AA41" s="45"/>
+      <c r="AB41" s="45"/>
+      <c r="AC41" s="45"/>
+      <c r="AD41" s="45"/>
+      <c r="AE41" s="45"/>
+      <c r="AF41" s="45"/>
+      <c r="AG41" s="45"/>
+      <c r="AH41" s="45"/>
+      <c r="AI41" s="39"/>
+    </row>
+    <row r="42" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A42" s="46"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="45"/>
+      <c r="T42" s="45"/>
+      <c r="U42" s="45"/>
+      <c r="V42" s="45"/>
+      <c r="W42" s="45"/>
+      <c r="X42" s="45"/>
+      <c r="Y42" s="45"/>
+      <c r="Z42" s="45"/>
+      <c r="AA42" s="45"/>
+      <c r="AB42" s="45"/>
+      <c r="AC42" s="45"/>
+      <c r="AD42" s="45"/>
+      <c r="AE42" s="45"/>
+      <c r="AF42" s="45"/>
+      <c r="AG42" s="45"/>
+      <c r="AH42" s="45"/>
+      <c r="AI42" s="39"/>
+    </row>
+    <row r="43" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A43" s="46"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="45"/>
+      <c r="S43" s="45"/>
+      <c r="T43" s="45"/>
+      <c r="U43" s="45"/>
+      <c r="V43" s="45"/>
+      <c r="W43" s="45"/>
+      <c r="X43" s="45"/>
+      <c r="Y43" s="45"/>
+      <c r="Z43" s="45"/>
+      <c r="AA43" s="45"/>
+      <c r="AB43" s="45"/>
+      <c r="AC43" s="45"/>
+      <c r="AD43" s="45"/>
+      <c r="AE43" s="45"/>
+      <c r="AF43" s="45"/>
+      <c r="AG43" s="45"/>
+      <c r="AH43" s="45"/>
+      <c r="AI43" s="39"/>
+    </row>
+    <row r="44" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A44" s="46"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="45"/>
+      <c r="R44" s="45"/>
+      <c r="S44" s="45"/>
+      <c r="T44" s="45"/>
+      <c r="U44" s="45"/>
+      <c r="V44" s="45"/>
+      <c r="W44" s="45"/>
+      <c r="X44" s="45"/>
+      <c r="Y44" s="45"/>
+      <c r="Z44" s="45"/>
+      <c r="AA44" s="45"/>
+      <c r="AB44" s="45"/>
+      <c r="AC44" s="45"/>
+      <c r="AD44" s="45"/>
+      <c r="AE44" s="45"/>
+      <c r="AF44" s="45"/>
+      <c r="AG44" s="45"/>
+      <c r="AH44" s="45"/>
+      <c r="AI44" s="39"/>
+    </row>
+    <row r="45" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A45" s="46"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="45"/>
+      <c r="R45" s="45"/>
+      <c r="S45" s="45"/>
+      <c r="T45" s="45"/>
+      <c r="U45" s="45"/>
+      <c r="V45" s="45"/>
+      <c r="W45" s="45"/>
+      <c r="X45" s="45"/>
+      <c r="Y45" s="45"/>
+      <c r="Z45" s="45"/>
+      <c r="AA45" s="45"/>
+      <c r="AB45" s="45"/>
+      <c r="AC45" s="45"/>
+      <c r="AD45" s="45"/>
+      <c r="AE45" s="45"/>
+      <c r="AF45" s="45"/>
+      <c r="AG45" s="45"/>
+      <c r="AH45" s="45"/>
+      <c r="AI45" s="39"/>
+    </row>
+    <row r="46" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A46" s="37"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="52"/>
+      <c r="Q46" s="52"/>
+      <c r="R46" s="52"/>
+      <c r="S46" s="52"/>
+      <c r="T46" s="52"/>
+      <c r="U46" s="52"/>
+      <c r="V46" s="52"/>
+      <c r="W46" s="52"/>
+      <c r="X46" s="52"/>
+      <c r="Y46" s="52"/>
+      <c r="Z46" s="52"/>
+      <c r="AA46" s="52"/>
+      <c r="AB46" s="52"/>
+      <c r="AC46" s="52"/>
+      <c r="AD46" s="52"/>
+      <c r="AE46" s="52"/>
+      <c r="AF46" s="52"/>
+      <c r="AG46" s="52"/>
+      <c r="AH46" s="52"/>
+      <c r="AI46" s="39"/>
+    </row>
+    <row r="47" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A47" s="37"/>
+      <c r="B47" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="Q23" s="102"/>
-      <c r="R23" s="118" t="s">
-        <v>44</v>
-      </c>
-      <c r="S23" s="132"/>
-      <c r="T23" s="132"/>
-      <c r="U23" s="119"/>
-      <c r="V23" s="118" t="s">
-        <v>45</v>
-      </c>
-      <c r="W23" s="132"/>
-      <c r="X23" s="132"/>
-      <c r="Y23" s="119"/>
-      <c r="Z23" s="134">
-        <v>45761</v>
-      </c>
-      <c r="AA23" s="133"/>
-      <c r="AB23" s="135"/>
-      <c r="AC23" s="134">
-        <v>45792</v>
-      </c>
-      <c r="AD23" s="133"/>
-      <c r="AE23" s="135"/>
-      <c r="AF23" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG23" s="140"/>
-      <c r="AH23" s="117"/>
-      <c r="AI23" s="141" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ23" s="142"/>
-      <c r="AK23" s="39"/>
-    </row>
-    <row r="24" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A24" s="37"/>
-      <c r="B24" s="98">
-        <v>19</v>
-      </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="115" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="116"/>
-      <c r="F24" s="115" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="116"/>
-      <c r="H24" s="115" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" s="116"/>
-      <c r="J24" s="115" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" s="117"/>
-      <c r="L24" s="118" t="s">
-        <v>48</v>
-      </c>
-      <c r="M24" s="132"/>
-      <c r="N24" s="132"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="102" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q24" s="102"/>
-      <c r="R24" s="136" t="s">
-        <v>50</v>
-      </c>
-      <c r="S24" s="137"/>
-      <c r="T24" s="137"/>
-      <c r="U24" s="138"/>
-      <c r="V24" s="118" t="s">
-        <v>51</v>
-      </c>
-      <c r="W24" s="132"/>
-      <c r="X24" s="132"/>
-      <c r="Y24" s="119"/>
-      <c r="Z24" s="134">
-        <v>45717</v>
-      </c>
-      <c r="AA24" s="133"/>
-      <c r="AB24" s="135"/>
-      <c r="AC24" s="134">
-        <v>45783</v>
-      </c>
-      <c r="AD24" s="133"/>
-      <c r="AE24" s="135"/>
-      <c r="AF24" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG24" s="140"/>
-      <c r="AH24" s="117"/>
-      <c r="AI24" s="141" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ24" s="142"/>
-      <c r="AK24" s="39"/>
-    </row>
-    <row r="25" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A25" s="37"/>
-      <c r="B25" s="118">
-        <v>18</v>
-      </c>
-      <c r="C25" s="119"/>
-      <c r="D25" s="118" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="119"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="132"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="115"/>
-      <c r="S25" s="117"/>
-      <c r="T25" s="117"/>
-      <c r="U25" s="117"/>
-      <c r="V25" s="118"/>
-      <c r="W25" s="132"/>
-      <c r="X25" s="132"/>
-      <c r="Y25" s="119"/>
-      <c r="Z25" s="117"/>
-      <c r="AA25" s="117"/>
-      <c r="AB25" s="116"/>
-      <c r="AC25" s="118" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD25" s="132"/>
-      <c r="AE25" s="119"/>
-      <c r="AF25" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG25" s="140"/>
-      <c r="AH25" s="117"/>
-      <c r="AI25" s="141" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ25" s="142"/>
-      <c r="AK25" s="39"/>
-    </row>
-    <row r="26" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A26" s="37"/>
-      <c r="B26" s="98">
-        <v>17</v>
-      </c>
-      <c r="C26" s="99"/>
-      <c r="D26" s="118" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="119"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="117"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="132"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="102"/>
-      <c r="Q26" s="102"/>
-      <c r="R26" s="115"/>
-      <c r="S26" s="117"/>
-      <c r="T26" s="117"/>
-      <c r="U26" s="117"/>
-      <c r="V26" s="118"/>
-      <c r="W26" s="132"/>
-      <c r="X26" s="132"/>
-      <c r="Y26" s="119"/>
-      <c r="Z26" s="117"/>
-      <c r="AA26" s="117"/>
-      <c r="AB26" s="116"/>
-      <c r="AC26" s="118" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD26" s="132"/>
-      <c r="AE26" s="119"/>
-      <c r="AF26" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG26" s="140"/>
-      <c r="AH26" s="117"/>
-      <c r="AI26" s="141" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ26" s="142"/>
-      <c r="AK26" s="39"/>
-    </row>
-    <row r="27" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="118">
-        <v>16</v>
-      </c>
-      <c r="C27" s="119"/>
-      <c r="D27" s="118" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="119"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="117"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="102"/>
-      <c r="Q27" s="102"/>
-      <c r="R27" s="115"/>
-      <c r="S27" s="117"/>
-      <c r="T27" s="117"/>
-      <c r="U27" s="117"/>
-      <c r="V27" s="118"/>
-      <c r="W27" s="132"/>
-      <c r="X27" s="132"/>
-      <c r="Y27" s="119"/>
-      <c r="Z27" s="117"/>
-      <c r="AA27" s="117"/>
-      <c r="AB27" s="116"/>
-      <c r="AC27" s="118" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD27" s="132"/>
-      <c r="AE27" s="119"/>
-      <c r="AF27" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG27" s="140"/>
-      <c r="AH27" s="117"/>
-      <c r="AI27" s="141" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ27" s="142"/>
-      <c r="AK27" s="39"/>
-    </row>
-    <row r="28" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A28" s="37"/>
-      <c r="B28" s="98">
-        <v>15</v>
-      </c>
-      <c r="C28" s="99"/>
-      <c r="D28" s="118" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="119"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="117"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="117"/>
-      <c r="N28" s="117"/>
-      <c r="O28" s="116"/>
-      <c r="P28" s="102"/>
-      <c r="Q28" s="102"/>
-      <c r="R28" s="115"/>
-      <c r="S28" s="117"/>
-      <c r="T28" s="117"/>
-      <c r="U28" s="117"/>
-      <c r="V28" s="118"/>
-      <c r="W28" s="132"/>
-      <c r="X28" s="132"/>
-      <c r="Y28" s="119"/>
-      <c r="Z28" s="117"/>
-      <c r="AA28" s="117"/>
-      <c r="AB28" s="116"/>
-      <c r="AC28" s="118" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD28" s="132"/>
-      <c r="AE28" s="119"/>
-      <c r="AF28" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG28" s="140"/>
-      <c r="AH28" s="117"/>
-      <c r="AI28" s="141" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ28" s="142"/>
-      <c r="AK28" s="39"/>
-    </row>
-    <row r="29" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A29" s="37"/>
-      <c r="B29" s="118">
-        <v>14</v>
-      </c>
-      <c r="C29" s="119"/>
-      <c r="D29" s="118" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="119"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="115"/>
-      <c r="K29" s="117"/>
-      <c r="L29" s="115"/>
-      <c r="M29" s="117"/>
-      <c r="N29" s="117"/>
-      <c r="O29" s="116"/>
-      <c r="P29" s="102"/>
-      <c r="Q29" s="102"/>
-      <c r="R29" s="115"/>
-      <c r="S29" s="117"/>
-      <c r="T29" s="117"/>
-      <c r="U29" s="117"/>
-      <c r="V29" s="118"/>
-      <c r="W29" s="132"/>
-      <c r="X29" s="132"/>
-      <c r="Y29" s="119"/>
-      <c r="Z29" s="117"/>
-      <c r="AA29" s="117"/>
-      <c r="AB29" s="116"/>
-      <c r="AC29" s="118" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD29" s="132"/>
-      <c r="AE29" s="119"/>
-      <c r="AF29" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG29" s="140"/>
-      <c r="AH29" s="117"/>
-      <c r="AI29" s="141" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ29" s="142"/>
-      <c r="AK29" s="39"/>
-    </row>
-    <row r="30" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A30" s="37"/>
-      <c r="B30" s="98">
-        <v>13</v>
-      </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="117"/>
-      <c r="L30" s="115"/>
-      <c r="M30" s="117"/>
-      <c r="N30" s="117"/>
-      <c r="O30" s="116"/>
-      <c r="P30" s="102"/>
-      <c r="Q30" s="102"/>
-      <c r="R30" s="115"/>
-      <c r="S30" s="117"/>
-      <c r="T30" s="117"/>
-      <c r="U30" s="117"/>
-      <c r="V30" s="118"/>
-      <c r="W30" s="132"/>
-      <c r="X30" s="132"/>
-      <c r="Y30" s="119"/>
-      <c r="Z30" s="117"/>
-      <c r="AA30" s="117"/>
-      <c r="AB30" s="116"/>
-      <c r="AC30" s="117"/>
-      <c r="AD30" s="117"/>
-      <c r="AE30" s="116"/>
-      <c r="AF30" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG30" s="140"/>
-      <c r="AH30" s="117"/>
-      <c r="AI30" s="141" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ30" s="142"/>
-      <c r="AK30" s="39"/>
-    </row>
-    <row r="31" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A31" s="37"/>
-      <c r="B31" s="118">
-        <v>12</v>
-      </c>
-      <c r="C31" s="119"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="115"/>
-      <c r="K31" s="117"/>
-      <c r="L31" s="115"/>
-      <c r="M31" s="117"/>
-      <c r="N31" s="117"/>
-      <c r="O31" s="116"/>
-      <c r="P31" s="102"/>
-      <c r="Q31" s="102"/>
-      <c r="R31" s="115"/>
-      <c r="S31" s="117"/>
-      <c r="T31" s="117"/>
-      <c r="U31" s="117"/>
-      <c r="V31" s="118"/>
-      <c r="W31" s="132"/>
-      <c r="X31" s="132"/>
-      <c r="Y31" s="119"/>
-      <c r="Z31" s="117"/>
-      <c r="AA31" s="117"/>
-      <c r="AB31" s="116"/>
-      <c r="AC31" s="117"/>
-      <c r="AD31" s="117"/>
-      <c r="AE31" s="116"/>
-      <c r="AF31" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG31" s="140"/>
-      <c r="AH31" s="117"/>
-      <c r="AI31" s="141" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ31" s="142"/>
-      <c r="AK31" s="39"/>
-    </row>
-    <row r="32" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A32" s="37"/>
-      <c r="B32" s="98">
-        <v>11</v>
-      </c>
-      <c r="C32" s="99"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="115"/>
-      <c r="K32" s="117"/>
-      <c r="L32" s="115"/>
-      <c r="M32" s="117"/>
-      <c r="N32" s="117"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="102"/>
-      <c r="Q32" s="102"/>
-      <c r="R32" s="115"/>
-      <c r="S32" s="117"/>
-      <c r="T32" s="117"/>
-      <c r="U32" s="117"/>
-      <c r="V32" s="118"/>
-      <c r="W32" s="132"/>
-      <c r="X32" s="132"/>
-      <c r="Y32" s="119"/>
-      <c r="Z32" s="117"/>
-      <c r="AA32" s="117"/>
-      <c r="AB32" s="116"/>
-      <c r="AC32" s="117"/>
-      <c r="AD32" s="117"/>
-      <c r="AE32" s="116"/>
-      <c r="AF32" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG32" s="140"/>
-      <c r="AH32" s="117"/>
-      <c r="AI32" s="141" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ32" s="142"/>
-      <c r="AK32" s="39"/>
-    </row>
-    <row r="33" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A33" s="37"/>
-      <c r="B33" s="118">
-        <v>10</v>
-      </c>
-      <c r="C33" s="119"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="117"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="117"/>
-      <c r="N33" s="117"/>
-      <c r="O33" s="116"/>
-      <c r="P33" s="102"/>
-      <c r="Q33" s="102"/>
-      <c r="R33" s="115"/>
-      <c r="S33" s="117"/>
-      <c r="T33" s="117"/>
-      <c r="U33" s="117"/>
-      <c r="V33" s="118"/>
-      <c r="W33" s="132"/>
-      <c r="X33" s="132"/>
-      <c r="Y33" s="119"/>
-      <c r="Z33" s="117"/>
-      <c r="AA33" s="117"/>
-      <c r="AB33" s="116"/>
-      <c r="AC33" s="117"/>
-      <c r="AD33" s="117"/>
-      <c r="AE33" s="116"/>
-      <c r="AF33" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG33" s="140"/>
-      <c r="AH33" s="117"/>
-      <c r="AI33" s="141" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ33" s="142"/>
-      <c r="AK33" s="39"/>
-    </row>
-    <row r="34" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A34" s="37"/>
-      <c r="B34" s="98">
-        <v>9</v>
-      </c>
-      <c r="C34" s="99"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="115"/>
-      <c r="M34" s="117"/>
-      <c r="N34" s="117"/>
-      <c r="O34" s="116"/>
-      <c r="P34" s="102"/>
-      <c r="Q34" s="102"/>
-      <c r="R34" s="115"/>
-      <c r="S34" s="117"/>
-      <c r="T34" s="117"/>
-      <c r="U34" s="117"/>
-      <c r="V34" s="118"/>
-      <c r="W34" s="132"/>
-      <c r="X34" s="132"/>
-      <c r="Y34" s="119"/>
-      <c r="Z34" s="117"/>
-      <c r="AA34" s="117"/>
-      <c r="AB34" s="116"/>
-      <c r="AC34" s="117"/>
-      <c r="AD34" s="117"/>
-      <c r="AE34" s="116"/>
-      <c r="AF34" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG34" s="140"/>
-      <c r="AH34" s="117"/>
-      <c r="AI34" s="141" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ34" s="142"/>
-      <c r="AK34" s="39"/>
-    </row>
-    <row r="35" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A35" s="37"/>
-      <c r="B35" s="118">
-        <v>8</v>
-      </c>
-      <c r="C35" s="119"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="115"/>
-      <c r="M35" s="117"/>
-      <c r="N35" s="117"/>
-      <c r="O35" s="116"/>
-      <c r="P35" s="102"/>
-      <c r="Q35" s="102"/>
-      <c r="R35" s="115"/>
-      <c r="S35" s="117"/>
-      <c r="T35" s="117"/>
-      <c r="U35" s="117"/>
-      <c r="V35" s="118"/>
-      <c r="W35" s="132"/>
-      <c r="X35" s="132"/>
-      <c r="Y35" s="119"/>
-      <c r="Z35" s="117"/>
-      <c r="AA35" s="117"/>
-      <c r="AB35" s="116"/>
-      <c r="AC35" s="117"/>
-      <c r="AD35" s="117"/>
-      <c r="AE35" s="116"/>
-      <c r="AF35" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG35" s="140"/>
-      <c r="AH35" s="117"/>
-      <c r="AI35" s="141" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ35" s="142"/>
-      <c r="AK35" s="39"/>
-    </row>
-    <row r="36" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A36" s="37"/>
-      <c r="B36" s="98">
-        <v>7</v>
-      </c>
-      <c r="C36" s="99"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="117"/>
-      <c r="L36" s="115"/>
-      <c r="M36" s="117"/>
-      <c r="N36" s="117"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="102"/>
-      <c r="Q36" s="102"/>
-      <c r="R36" s="115"/>
-      <c r="S36" s="117"/>
-      <c r="T36" s="117"/>
-      <c r="U36" s="117"/>
-      <c r="V36" s="118"/>
-      <c r="W36" s="132"/>
-      <c r="X36" s="132"/>
-      <c r="Y36" s="119"/>
-      <c r="Z36" s="117"/>
-      <c r="AA36" s="117"/>
-      <c r="AB36" s="116"/>
-      <c r="AC36" s="117"/>
-      <c r="AD36" s="117"/>
-      <c r="AE36" s="116"/>
-      <c r="AF36" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG36" s="140"/>
-      <c r="AH36" s="117"/>
-      <c r="AI36" s="141" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ36" s="142"/>
-      <c r="AK36" s="39"/>
-    </row>
-    <row r="37" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A37" s="37"/>
-      <c r="B37" s="118">
-        <v>6</v>
-      </c>
-      <c r="C37" s="119"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="116"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="115"/>
-      <c r="K37" s="117"/>
-      <c r="L37" s="115"/>
-      <c r="M37" s="117"/>
-      <c r="N37" s="117"/>
-      <c r="O37" s="116"/>
-      <c r="P37" s="102"/>
-      <c r="Q37" s="102"/>
-      <c r="R37" s="115"/>
-      <c r="S37" s="117"/>
-      <c r="T37" s="117"/>
-      <c r="U37" s="117"/>
-      <c r="V37" s="118"/>
-      <c r="W37" s="132"/>
-      <c r="X37" s="132"/>
-      <c r="Y37" s="119"/>
-      <c r="Z37" s="117"/>
-      <c r="AA37" s="117"/>
-      <c r="AB37" s="116"/>
-      <c r="AC37" s="117"/>
-      <c r="AD37" s="117"/>
-      <c r="AE37" s="116"/>
-      <c r="AF37" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG37" s="140"/>
-      <c r="AH37" s="117"/>
-      <c r="AI37" s="141" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ37" s="142"/>
-      <c r="AK37" s="39"/>
-    </row>
-    <row r="38" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A38" s="37"/>
-      <c r="B38" s="98">
-        <v>5</v>
-      </c>
-      <c r="C38" s="99"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="115"/>
-      <c r="K38" s="117"/>
-      <c r="L38" s="115"/>
-      <c r="M38" s="117"/>
-      <c r="N38" s="117"/>
-      <c r="O38" s="116"/>
-      <c r="P38" s="102"/>
-      <c r="Q38" s="102"/>
-      <c r="R38" s="115"/>
-      <c r="S38" s="117"/>
-      <c r="T38" s="117"/>
-      <c r="U38" s="117"/>
-      <c r="V38" s="118"/>
-      <c r="W38" s="132"/>
-      <c r="X38" s="132"/>
-      <c r="Y38" s="119"/>
-      <c r="Z38" s="117"/>
-      <c r="AA38" s="117"/>
-      <c r="AB38" s="116"/>
-      <c r="AC38" s="117"/>
-      <c r="AD38" s="117"/>
-      <c r="AE38" s="116"/>
-      <c r="AF38" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG38" s="140"/>
-      <c r="AH38" s="117"/>
-      <c r="AI38" s="141" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ38" s="142"/>
-      <c r="AK38" s="39"/>
-    </row>
-    <row r="39" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A39" s="37"/>
-      <c r="B39" s="118">
-        <v>4</v>
-      </c>
-      <c r="C39" s="119"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="115"/>
-      <c r="K39" s="117"/>
-      <c r="L39" s="115"/>
-      <c r="M39" s="117"/>
-      <c r="N39" s="117"/>
-      <c r="O39" s="116"/>
-      <c r="P39" s="102"/>
-      <c r="Q39" s="102"/>
-      <c r="R39" s="115"/>
-      <c r="S39" s="117"/>
-      <c r="T39" s="117"/>
-      <c r="U39" s="117"/>
-      <c r="V39" s="118"/>
-      <c r="W39" s="132"/>
-      <c r="X39" s="132"/>
-      <c r="Y39" s="119"/>
-      <c r="Z39" s="117"/>
-      <c r="AA39" s="117"/>
-      <c r="AB39" s="116"/>
-      <c r="AC39" s="117"/>
-      <c r="AD39" s="117"/>
-      <c r="AE39" s="116"/>
-      <c r="AF39" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG39" s="140"/>
-      <c r="AH39" s="117"/>
-      <c r="AI39" s="141" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ39" s="142"/>
-      <c r="AK39" s="39"/>
-    </row>
-    <row r="40" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A40" s="37"/>
-      <c r="B40" s="98">
-        <v>3</v>
-      </c>
-      <c r="C40" s="99"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="116"/>
-      <c r="J40" s="115"/>
-      <c r="K40" s="117"/>
-      <c r="L40" s="115"/>
-      <c r="M40" s="117"/>
-      <c r="N40" s="117"/>
-      <c r="O40" s="116"/>
-      <c r="P40" s="102"/>
-      <c r="Q40" s="102"/>
-      <c r="R40" s="115"/>
-      <c r="S40" s="117"/>
-      <c r="T40" s="117"/>
-      <c r="U40" s="117"/>
-      <c r="V40" s="118"/>
-      <c r="W40" s="132"/>
-      <c r="X40" s="132"/>
-      <c r="Y40" s="119"/>
-      <c r="Z40" s="117"/>
-      <c r="AA40" s="117"/>
-      <c r="AB40" s="116"/>
-      <c r="AC40" s="117"/>
-      <c r="AD40" s="117"/>
-      <c r="AE40" s="116"/>
-      <c r="AF40" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG40" s="140"/>
-      <c r="AH40" s="117"/>
-      <c r="AI40" s="141" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ40" s="142"/>
-      <c r="AK40" s="39"/>
-    </row>
-    <row r="41" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A41" s="37"/>
-      <c r="B41" s="118">
-        <v>2</v>
-      </c>
-      <c r="C41" s="119"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="115"/>
-      <c r="I41" s="116"/>
-      <c r="J41" s="115"/>
-      <c r="K41" s="117"/>
-      <c r="L41" s="115"/>
-      <c r="M41" s="117"/>
-      <c r="N41" s="117"/>
-      <c r="O41" s="116"/>
-      <c r="P41" s="102"/>
-      <c r="Q41" s="102"/>
-      <c r="R41" s="115"/>
-      <c r="S41" s="117"/>
-      <c r="T41" s="117"/>
-      <c r="U41" s="117"/>
-      <c r="V41" s="118"/>
-      <c r="W41" s="132"/>
-      <c r="X41" s="132"/>
-      <c r="Y41" s="119"/>
-      <c r="Z41" s="117"/>
-      <c r="AA41" s="117"/>
-      <c r="AB41" s="116"/>
-      <c r="AC41" s="117"/>
-      <c r="AD41" s="117"/>
-      <c r="AE41" s="116"/>
-      <c r="AF41" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG41" s="140"/>
-      <c r="AH41" s="117"/>
-      <c r="AI41" s="141" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ41" s="142"/>
-      <c r="AK41" s="39"/>
-    </row>
-    <row r="42" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A42" s="37"/>
-      <c r="B42" s="118">
-        <v>1</v>
-      </c>
-      <c r="C42" s="119"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="116"/>
-      <c r="J42" s="115"/>
-      <c r="K42" s="117"/>
-      <c r="L42" s="115"/>
-      <c r="M42" s="117"/>
-      <c r="N42" s="117"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="102"/>
-      <c r="Q42" s="102"/>
-      <c r="R42" s="115"/>
-      <c r="S42" s="117"/>
-      <c r="T42" s="117"/>
-      <c r="U42" s="117"/>
-      <c r="V42" s="118"/>
-      <c r="W42" s="132"/>
-      <c r="X42" s="132"/>
-      <c r="Y42" s="119"/>
-      <c r="Z42" s="117"/>
-      <c r="AA42" s="117"/>
-      <c r="AB42" s="116"/>
-      <c r="AC42" s="117"/>
-      <c r="AD42" s="117"/>
-      <c r="AE42" s="116"/>
-      <c r="AF42" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG42" s="140"/>
-      <c r="AH42" s="117"/>
-      <c r="AI42" s="141" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ42" s="142"/>
-      <c r="AK42" s="39"/>
-    </row>
-    <row r="43" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A43" s="37"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="101"/>
-      <c r="J43" s="101"/>
-      <c r="K43" s="101"/>
-      <c r="L43" s="101"/>
-      <c r="M43" s="101"/>
-      <c r="N43" s="101"/>
-      <c r="O43" s="101"/>
-      <c r="P43" s="101"/>
-      <c r="Q43" s="101"/>
-      <c r="R43" s="101"/>
-      <c r="S43" s="101"/>
-      <c r="T43" s="101"/>
-      <c r="U43" s="101"/>
-      <c r="V43" s="101"/>
-      <c r="W43" s="101"/>
-      <c r="X43" s="101"/>
-      <c r="Y43" s="101"/>
-      <c r="Z43" s="101"/>
-      <c r="AA43" s="101"/>
-      <c r="AB43" s="101"/>
-      <c r="AC43" s="101"/>
-      <c r="AD43" s="101"/>
-      <c r="AE43" s="101"/>
-      <c r="AF43" s="101"/>
-      <c r="AG43" s="101"/>
-      <c r="AH43" s="101"/>
-      <c r="AI43" s="101"/>
-      <c r="AJ43" s="101"/>
-      <c r="AK43" s="39"/>
-    </row>
-    <row r="44" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A44" s="37"/>
-      <c r="B44" s="101"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="101"/>
-      <c r="J44" s="101"/>
-      <c r="K44" s="101"/>
-      <c r="L44" s="101"/>
-      <c r="M44" s="101"/>
-      <c r="N44" s="101"/>
-      <c r="O44" s="101"/>
-      <c r="P44" s="101"/>
-      <c r="Q44" s="101"/>
-      <c r="R44" s="101"/>
-      <c r="S44" s="101"/>
-      <c r="T44" s="101"/>
-      <c r="U44" s="101"/>
-      <c r="V44" s="101"/>
-      <c r="W44" s="101"/>
-      <c r="X44" s="101"/>
-      <c r="Y44" s="101"/>
-      <c r="Z44" s="101"/>
-      <c r="AA44" s="101"/>
-      <c r="AB44" s="101"/>
-      <c r="AC44" s="101"/>
-      <c r="AD44" s="101"/>
-      <c r="AE44" s="101"/>
-      <c r="AF44" s="101"/>
-      <c r="AG44" s="101"/>
-      <c r="AH44" s="101"/>
-      <c r="AI44" s="101"/>
-      <c r="AJ44" s="101"/>
-      <c r="AK44" s="39"/>
-    </row>
-    <row r="45" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A45" s="37"/>
-      <c r="B45" s="101"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="101"/>
-      <c r="G45" s="101"/>
-      <c r="H45" s="101"/>
-      <c r="I45" s="101"/>
-      <c r="J45" s="101"/>
-      <c r="K45" s="101"/>
-      <c r="L45" s="101"/>
-      <c r="M45" s="101"/>
-      <c r="N45" s="101"/>
-      <c r="O45" s="101"/>
-      <c r="P45" s="101"/>
-      <c r="Q45" s="101"/>
-      <c r="R45" s="101"/>
-      <c r="S45" s="101"/>
-      <c r="T45" s="101"/>
-      <c r="U45" s="101"/>
-      <c r="V45" s="101"/>
-      <c r="W45" s="101"/>
-      <c r="X45" s="101"/>
-      <c r="Y45" s="101"/>
-      <c r="Z45" s="101"/>
-      <c r="AA45" s="101"/>
-      <c r="AB45" s="101"/>
-      <c r="AC45" s="101"/>
-      <c r="AD45" s="101"/>
-      <c r="AE45" s="101"/>
-      <c r="AF45" s="101"/>
-      <c r="AG45" s="101"/>
-      <c r="AH45" s="101"/>
-      <c r="AI45" s="101"/>
-      <c r="AJ45" s="101"/>
-      <c r="AK45" s="39"/>
-    </row>
-    <row r="46" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A46" s="37"/>
-      <c r="B46" s="101"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="101"/>
-      <c r="J46" s="101"/>
-      <c r="K46" s="101"/>
-      <c r="L46" s="101"/>
-      <c r="M46" s="101"/>
-      <c r="N46" s="101"/>
-      <c r="O46" s="101"/>
-      <c r="P46" s="101"/>
-      <c r="Q46" s="101"/>
-      <c r="R46" s="101"/>
-      <c r="S46" s="101"/>
-      <c r="T46" s="101"/>
-      <c r="U46" s="101"/>
-      <c r="V46" s="101"/>
-      <c r="W46" s="101"/>
-      <c r="X46" s="101"/>
-      <c r="Y46" s="101"/>
-      <c r="Z46" s="101"/>
-      <c r="AA46" s="101"/>
-      <c r="AB46" s="101"/>
-      <c r="AC46" s="101"/>
-      <c r="AD46" s="101"/>
-      <c r="AE46" s="101"/>
-      <c r="AF46" s="101"/>
-      <c r="AG46" s="101"/>
-      <c r="AH46" s="101"/>
-      <c r="AI46" s="101"/>
-      <c r="AJ46" s="101"/>
-      <c r="AK46" s="39"/>
-    </row>
-    <row r="47" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A47" s="37"/>
-      <c r="B47" s="114" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="106"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="106"/>
-      <c r="K47" s="106"/>
-      <c r="L47" s="106"/>
-      <c r="M47" s="106"/>
-      <c r="N47" s="106"/>
-      <c r="O47" s="106"/>
-      <c r="P47" s="106"/>
-      <c r="Q47" s="106"/>
-      <c r="R47" s="106"/>
-      <c r="S47" s="106"/>
-      <c r="T47" s="106"/>
-      <c r="U47" s="106"/>
-      <c r="V47" s="106"/>
-      <c r="W47" s="106"/>
-      <c r="X47" s="106"/>
-      <c r="Y47" s="106"/>
-      <c r="Z47" s="106"/>
-      <c r="AA47" s="106"/>
-      <c r="AB47" s="106"/>
-      <c r="AC47" s="106"/>
-      <c r="AD47" s="106"/>
-      <c r="AE47" s="106"/>
-      <c r="AF47" s="106"/>
-      <c r="AG47" s="106"/>
-      <c r="AH47" s="106"/>
-      <c r="AI47" s="106"/>
-      <c r="AJ47" s="107"/>
-      <c r="AK47" s="39"/>
-    </row>
-    <row r="48" spans="1:37" ht="12.75" customHeight="1">
+      <c r="C47" s="82"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="82"/>
+      <c r="L47" s="82"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="82"/>
+      <c r="O47" s="82"/>
+      <c r="P47" s="82"/>
+      <c r="Q47" s="82"/>
+      <c r="R47" s="82"/>
+      <c r="S47" s="82"/>
+      <c r="T47" s="82"/>
+      <c r="U47" s="82"/>
+      <c r="V47" s="82"/>
+      <c r="W47" s="82"/>
+      <c r="X47" s="82"/>
+      <c r="Y47" s="82"/>
+      <c r="Z47" s="82"/>
+      <c r="AA47" s="82"/>
+      <c r="AB47" s="82"/>
+      <c r="AC47" s="82"/>
+      <c r="AD47" s="82"/>
+      <c r="AE47" s="82"/>
+      <c r="AF47" s="82"/>
+      <c r="AG47" s="82"/>
+      <c r="AH47" s="83"/>
+      <c r="AI47" s="39"/>
+    </row>
+    <row r="48" spans="1:35" ht="12.75" customHeight="1">
       <c r="A48" s="37"/>
-      <c r="B48" s="108"/>
-      <c r="C48" s="109"/>
-      <c r="D48" s="109"/>
-      <c r="E48" s="109"/>
-      <c r="F48" s="109"/>
-      <c r="G48" s="109"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="109"/>
-      <c r="J48" s="109"/>
-      <c r="K48" s="109"/>
-      <c r="L48" s="109"/>
-      <c r="M48" s="109"/>
-      <c r="N48" s="109"/>
-      <c r="O48" s="109"/>
-      <c r="P48" s="109"/>
-      <c r="Q48" s="109"/>
-      <c r="R48" s="109"/>
-      <c r="S48" s="109"/>
-      <c r="T48" s="109"/>
-      <c r="U48" s="109"/>
-      <c r="V48" s="109"/>
-      <c r="W48" s="109"/>
-      <c r="X48" s="109"/>
-      <c r="Y48" s="109"/>
-      <c r="Z48" s="109"/>
-      <c r="AA48" s="109"/>
-      <c r="AB48" s="109"/>
-      <c r="AC48" s="109"/>
-      <c r="AD48" s="109"/>
-      <c r="AE48" s="109"/>
-      <c r="AF48" s="109"/>
-      <c r="AG48" s="109"/>
-      <c r="AH48" s="109"/>
-      <c r="AI48" s="109"/>
-      <c r="AJ48" s="110"/>
-      <c r="AK48" s="39"/>
-    </row>
-    <row r="49" spans="1:37" ht="12.75" customHeight="1">
+      <c r="B48" s="84"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="85"/>
+      <c r="K48" s="85"/>
+      <c r="L48" s="85"/>
+      <c r="M48" s="85"/>
+      <c r="N48" s="85"/>
+      <c r="O48" s="85"/>
+      <c r="P48" s="85"/>
+      <c r="Q48" s="85"/>
+      <c r="R48" s="85"/>
+      <c r="S48" s="85"/>
+      <c r="T48" s="85"/>
+      <c r="U48" s="85"/>
+      <c r="V48" s="85"/>
+      <c r="W48" s="85"/>
+      <c r="X48" s="85"/>
+      <c r="Y48" s="85"/>
+      <c r="Z48" s="85"/>
+      <c r="AA48" s="85"/>
+      <c r="AB48" s="85"/>
+      <c r="AC48" s="85"/>
+      <c r="AD48" s="85"/>
+      <c r="AE48" s="85"/>
+      <c r="AF48" s="85"/>
+      <c r="AG48" s="85"/>
+      <c r="AH48" s="86"/>
+      <c r="AI48" s="39"/>
+    </row>
+    <row r="49" spans="1:35" ht="12.75" customHeight="1">
       <c r="A49" s="37"/>
-      <c r="B49" s="108"/>
-      <c r="C49" s="109"/>
-      <c r="D49" s="109"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="109"/>
-      <c r="G49" s="109"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="109"/>
-      <c r="J49" s="109"/>
-      <c r="K49" s="109"/>
-      <c r="L49" s="109"/>
-      <c r="M49" s="109"/>
-      <c r="N49" s="109"/>
-      <c r="O49" s="109"/>
-      <c r="P49" s="109"/>
-      <c r="Q49" s="109"/>
-      <c r="R49" s="109"/>
-      <c r="S49" s="109"/>
-      <c r="T49" s="109"/>
-      <c r="U49" s="109"/>
-      <c r="V49" s="109"/>
-      <c r="W49" s="109"/>
-      <c r="X49" s="109"/>
-      <c r="Y49" s="109"/>
-      <c r="Z49" s="109"/>
-      <c r="AA49" s="109"/>
-      <c r="AB49" s="109"/>
-      <c r="AC49" s="109"/>
-      <c r="AD49" s="109"/>
-      <c r="AE49" s="109"/>
-      <c r="AF49" s="109"/>
-      <c r="AG49" s="109"/>
-      <c r="AH49" s="109"/>
-      <c r="AI49" s="109"/>
-      <c r="AJ49" s="110"/>
-      <c r="AK49" s="39"/>
-    </row>
-    <row r="50" spans="1:37" ht="12.75" customHeight="1">
+      <c r="B49" s="84"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="85"/>
+      <c r="K49" s="85"/>
+      <c r="L49" s="85"/>
+      <c r="M49" s="85"/>
+      <c r="N49" s="85"/>
+      <c r="O49" s="85"/>
+      <c r="P49" s="85"/>
+      <c r="Q49" s="85"/>
+      <c r="R49" s="85"/>
+      <c r="S49" s="85"/>
+      <c r="T49" s="85"/>
+      <c r="U49" s="85"/>
+      <c r="V49" s="85"/>
+      <c r="W49" s="85"/>
+      <c r="X49" s="85"/>
+      <c r="Y49" s="85"/>
+      <c r="Z49" s="85"/>
+      <c r="AA49" s="85"/>
+      <c r="AB49" s="85"/>
+      <c r="AC49" s="85"/>
+      <c r="AD49" s="85"/>
+      <c r="AE49" s="85"/>
+      <c r="AF49" s="85"/>
+      <c r="AG49" s="85"/>
+      <c r="AH49" s="86"/>
+      <c r="AI49" s="39"/>
+    </row>
+    <row r="50" spans="1:35" ht="12.75" customHeight="1">
       <c r="A50" s="37"/>
-      <c r="B50" s="111"/>
-      <c r="C50" s="112"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="112"/>
-      <c r="F50" s="112"/>
-      <c r="G50" s="112"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="112"/>
-      <c r="J50" s="112"/>
-      <c r="K50" s="112"/>
-      <c r="L50" s="112"/>
-      <c r="M50" s="112"/>
-      <c r="N50" s="112"/>
-      <c r="O50" s="112"/>
-      <c r="P50" s="112"/>
-      <c r="Q50" s="112"/>
-      <c r="R50" s="112"/>
-      <c r="S50" s="112"/>
-      <c r="T50" s="112"/>
-      <c r="U50" s="112"/>
-      <c r="V50" s="112"/>
-      <c r="W50" s="112"/>
-      <c r="X50" s="112"/>
-      <c r="Y50" s="112"/>
-      <c r="Z50" s="112"/>
-      <c r="AA50" s="112"/>
-      <c r="AB50" s="112"/>
-      <c r="AC50" s="112"/>
-      <c r="AD50" s="112"/>
-      <c r="AE50" s="112"/>
-      <c r="AF50" s="112"/>
-      <c r="AG50" s="112"/>
-      <c r="AH50" s="112"/>
-      <c r="AI50" s="112"/>
-      <c r="AJ50" s="113"/>
-      <c r="AK50" s="39"/>
-    </row>
-    <row r="51" spans="1:37" ht="12.75" customHeight="1">
+      <c r="B50" s="87"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="88"/>
+      <c r="L50" s="88"/>
+      <c r="M50" s="88"/>
+      <c r="N50" s="88"/>
+      <c r="O50" s="88"/>
+      <c r="P50" s="88"/>
+      <c r="Q50" s="88"/>
+      <c r="R50" s="88"/>
+      <c r="S50" s="88"/>
+      <c r="T50" s="88"/>
+      <c r="U50" s="88"/>
+      <c r="V50" s="88"/>
+      <c r="W50" s="88"/>
+      <c r="X50" s="88"/>
+      <c r="Y50" s="88"/>
+      <c r="Z50" s="88"/>
+      <c r="AA50" s="88"/>
+      <c r="AB50" s="88"/>
+      <c r="AC50" s="88"/>
+      <c r="AD50" s="88"/>
+      <c r="AE50" s="88"/>
+      <c r="AF50" s="88"/>
+      <c r="AG50" s="88"/>
+      <c r="AH50" s="89"/>
+      <c r="AI50" s="39"/>
+    </row>
+    <row r="51" spans="1:35" ht="12.75" customHeight="1">
       <c r="A51" s="37"/>
       <c r="S51" s="35"/>
       <c r="T51" s="35"/>
@@ -8795,11 +10089,9 @@
       <c r="AF51" s="35"/>
       <c r="AG51" s="35"/>
       <c r="AH51" s="35"/>
-      <c r="AI51" s="35"/>
-      <c r="AJ51" s="35"/>
-      <c r="AK51" s="39"/>
-    </row>
-    <row r="52" spans="1:37" ht="12.75" customHeight="1">
+      <c r="AI51" s="39"/>
+    </row>
+    <row r="52" spans="1:35" ht="12.75" customHeight="1">
       <c r="A52" s="41"/>
       <c r="B52" s="42"/>
       <c r="C52" s="42"/>
@@ -8834,147 +10126,33 @@
       <c r="AF52" s="42"/>
       <c r="AG52" s="42"/>
       <c r="AH52" s="42"/>
-      <c r="AI52" s="42"/>
-      <c r="AJ52" s="42"/>
-      <c r="AK52" s="43"/>
+      <c r="AI52" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="135">
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="AI40:AJ40"/>
-    <mergeCell ref="AF41:AG41"/>
-    <mergeCell ref="AI41:AJ41"/>
-    <mergeCell ref="AF42:AG42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="AF23:AG23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="Z24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="V38:Y38"/>
-    <mergeCell ref="V39:Y39"/>
-    <mergeCell ref="V40:Y40"/>
-    <mergeCell ref="V41:Y41"/>
-    <mergeCell ref="V42:Y42"/>
-    <mergeCell ref="V33:Y33"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="V35:Y35"/>
-    <mergeCell ref="V36:Y36"/>
-    <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="V29:Y29"/>
-    <mergeCell ref="V30:Y30"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="V32:Y32"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="V26:Y26"/>
-    <mergeCell ref="V27:Y27"/>
-    <mergeCell ref="B47:AJ50"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R13:AC13"/>
-    <mergeCell ref="R14:AC14"/>
-    <mergeCell ref="R15:AC15"/>
-    <mergeCell ref="AD13:AJ13"/>
-    <mergeCell ref="AD14:AJ14"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="AF22:AJ22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A1:AK1"/>
+  <mergeCells count="23">
+    <mergeCell ref="H15:Q16"/>
+    <mergeCell ref="H17:Q18"/>
+    <mergeCell ref="H19:Q20"/>
+    <mergeCell ref="H21:Q22"/>
+    <mergeCell ref="H23:Q24"/>
+    <mergeCell ref="H25:Q26"/>
+    <mergeCell ref="H27:Q28"/>
+    <mergeCell ref="H29:Q30"/>
+    <mergeCell ref="H31:Q32"/>
+    <mergeCell ref="H33:Q34"/>
+    <mergeCell ref="H35:Q36"/>
+    <mergeCell ref="H37:Q38"/>
+    <mergeCell ref="B47:AH50"/>
+    <mergeCell ref="B5:AH8"/>
+    <mergeCell ref="A1:AI1"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AG3"/>
+    <mergeCell ref="G3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AG2"/>
+    <mergeCell ref="G2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="B5:AJ8"/>
-    <mergeCell ref="AD15:AJ15"/>
-    <mergeCell ref="B17:AJ17"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="L22:O22"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
